--- a/Crawling/data/shopee_shops.xlsx
+++ b/Crawling/data/shopee_shops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2441,6 +2441,2094 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>828085525</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>828067790</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>177</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.315068</v>
+      </c>
+      <c r="G39" t="n">
+        <v>44</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>lovelyhomeforyou.sg</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>18344</v>
+      </c>
+      <c r="J39" t="n">
+        <v>40</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>58</v>
+      </c>
+      <c r="M39" t="n">
+        <v>9</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>lovelyhomeforyou.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>393469970</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>393489547</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>650</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4.800587</v>
+      </c>
+      <c r="G40" t="n">
+        <v>55</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>jumbst05.sg</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>14989</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1491</v>
+      </c>
+      <c r="K40" t="n">
+        <v>65</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5981</v>
+      </c>
+      <c r="M40" t="n">
+        <v>257</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>jumbst05.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>32811676</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>32813060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BLOCK 536, JURONG WEST STREET 52, SG</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>46</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.86031</v>
+      </c>
+      <c r="G41" t="n">
+        <v>85</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>StunningStuff</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>5962</v>
+      </c>
+      <c r="J41" t="n">
+        <v>410</v>
+      </c>
+      <c r="K41" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3225</v>
+      </c>
+      <c r="M41" t="n">
+        <v>92</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>stunningstuff</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>504637970</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>504657548</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.466431</v>
+      </c>
+      <c r="G42" t="n">
+        <v>62</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Hello SGP.sg</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>10906</v>
+      </c>
+      <c r="J42" t="n">
+        <v>50</v>
+      </c>
+      <c r="K42" t="n">
+        <v>13</v>
+      </c>
+      <c r="L42" t="n">
+        <v>238</v>
+      </c>
+      <c r="M42" t="n">
+        <v>32</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>hellosgp.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>177834208</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>177836740</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GOLDENWALL FLATLED FACTORY, 2 JALAN RAJAH, #05-22, SG 329134</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>111</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4.850351</v>
+      </c>
+      <c r="G43" t="n">
+        <v>81</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>beanestore</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>11214</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1490</v>
+      </c>
+      <c r="K43" t="n">
+        <v>49</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6071</v>
+      </c>
+      <c r="M43" t="n">
+        <v>173</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>beanestore</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>52652942</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>52654330</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>512 Chai Chee Lane, SG</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>163</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.839886</v>
+      </c>
+      <c r="G44" t="n">
+        <v>77</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>555home</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>11857</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14364</v>
+      </c>
+      <c r="K44" t="n">
+        <v>270</v>
+      </c>
+      <c r="L44" t="n">
+        <v>34981</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1129</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>555home</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>701776630</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>701796215</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10 Woodlands Square SOLO 1, 04-46 (S)737714, SG</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>53</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4.754579</v>
+      </c>
+      <c r="G45" t="n">
+        <v>52</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>OUSLEE</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>15407</v>
+      </c>
+      <c r="J45" t="n">
+        <v>93</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>258</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>ouslee.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1395055</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1396097</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ubi Techpark, 10 Ubi Crescent Lobby C, SG</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>46</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.670037</v>
+      </c>
+      <c r="G46" t="n">
+        <v>99</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Quokka Shop</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>7796</v>
+      </c>
+      <c r="J46" t="n">
+        <v>311</v>
+      </c>
+      <c r="K46" t="n">
+        <v>46</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1734</v>
+      </c>
+      <c r="M46" t="n">
+        <v>125</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>quokkasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>493466761</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>493486339</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.731159</v>
+      </c>
+      <c r="G47" t="n">
+        <v>37</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>userremote0720.sg</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>11812</v>
+      </c>
+      <c r="J47" t="n">
+        <v>41</v>
+      </c>
+      <c r="K47" t="n">
+        <v>29</v>
+      </c>
+      <c r="L47" t="n">
+        <v>838</v>
+      </c>
+      <c r="M47" t="n">
+        <v>34</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>userremote0720.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>864052301</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>864071556</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>21 Bukit Batok Crescent #12-78 Wcega Tower Singapore 658065, SG</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>70</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.605791</v>
+      </c>
+      <c r="G48" t="n">
+        <v>94</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Perfectionism.</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>4650</v>
+      </c>
+      <c r="J48" t="n">
+        <v>307</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15</v>
+      </c>
+      <c r="L48" t="n">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>26</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>exnusp_v0n</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>33542933</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>33544317</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>252</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4.69355</v>
+      </c>
+      <c r="G49" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>colorshop.sg</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>568</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3308</v>
+      </c>
+      <c r="K49" t="n">
+        <v>199</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8576</v>
+      </c>
+      <c r="M49" t="n">
+        <v>596</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>colorshop.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>15920950</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>15922286</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Hougang ave 9 Blk 924, SG</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>47</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.801184</v>
+      </c>
+      <c r="G50" t="n">
+        <v>91</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>wonderhouse</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>5122</v>
+      </c>
+      <c r="J50" t="n">
+        <v>731</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3423</v>
+      </c>
+      <c r="M50" t="n">
+        <v>131</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>meanbee</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>84101</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>84103</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Blk 3023 UBIPLEX 1, UBI ROAD 3, #05-13, SG 408663</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>63</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4.878128</v>
+      </c>
+      <c r="G51" t="n">
+        <v>82</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CEF ideas</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>11203</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1570</v>
+      </c>
+      <c r="K51" t="n">
+        <v>56</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6717</v>
+      </c>
+      <c r="M51" t="n">
+        <v>139</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>cefideas</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>357973672</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>357993249</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bukit Batok Singapore, SG</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>21</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4.904008</v>
+      </c>
+      <c r="G52" t="n">
+        <v>98</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Sweetimize SG Official Store</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1816</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4987</v>
+      </c>
+      <c r="K52" t="n">
+        <v>30</v>
+      </c>
+      <c r="L52" t="n">
+        <v>7050</v>
+      </c>
+      <c r="M52" t="n">
+        <v>114</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>sweetimize</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>202850780</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>202853961</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>703 ANG MO KIO AVE 8, #01-2533, SG 560703</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>190</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4.921864</v>
+      </c>
+      <c r="G53" t="n">
+        <v>100</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>8thavemobile.sg</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3892</v>
+      </c>
+      <c r="J53" t="n">
+        <v>29726</v>
+      </c>
+      <c r="K53" t="n">
+        <v>40</v>
+      </c>
+      <c r="L53" t="n">
+        <v>14855</v>
+      </c>
+      <c r="M53" t="n">
+        <v>197</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>8thavemobile</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>422695807</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>422715384</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nordcom 2 Tower 1, SG</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>42</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.872705</v>
+      </c>
+      <c r="G54" t="n">
+        <v>97</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>SG house</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3222</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2364</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>809</v>
+      </c>
+      <c r="M54" t="n">
+        <v>19</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>sghouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>369862437</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>369882014</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The Splendour 31 bukit batok crescent #01-14, SG</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>57</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4.737692</v>
+      </c>
+      <c r="G55" t="n">
+        <v>66</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Davidson</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>9584</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1412</v>
+      </c>
+      <c r="K55" t="n">
+        <v>45</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2367</v>
+      </c>
+      <c r="M55" t="n">
+        <v>113</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>matilda_010</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>362108962</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>362128539</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>31 Woodlands close, Woodlands Horizon, #01-07, Guan Seng Electrical, SG 737855</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>220</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4.885768</v>
+      </c>
+      <c r="G56" t="n">
+        <v>93</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Goldberg Home</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>9787</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6877</v>
+      </c>
+      <c r="K56" t="n">
+        <v>27</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3241</v>
+      </c>
+      <c r="M56" t="n">
+        <v>65</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>goldberghome</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>281276851</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>281283505</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>162 Race Couesr Road, #01-01, SG</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>36</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4.800459</v>
+      </c>
+      <c r="G57" t="n">
+        <v>60</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>MOSIMOSI-VIP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>10398</v>
+      </c>
+      <c r="J57" t="n">
+        <v>685</v>
+      </c>
+      <c r="K57" t="n">
+        <v>39</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2124</v>
+      </c>
+      <c r="M57" t="n">
+        <v>69</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>mosimosivip</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>893573886</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>893622885</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3 PemimpinDrive #02-04/05 LIPHINGINDUSTRIALBUILDING, SG</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>11</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G58" t="n">
+        <v>77</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keromee </t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>8790</v>
+      </c>
+      <c r="J58" t="n">
+        <v>432</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
+      </c>
+      <c r="L58" t="n">
+        <v>252</v>
+      </c>
+      <c r="M58" t="n">
+        <v>10</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>keromee888.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>822004989</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>821991198</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>APT BLK 215 BUKIT BATOK STREET 21, SG</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>71</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.679938</v>
+      </c>
+      <c r="G59" t="n">
+        <v>91</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Star convenience store</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>11577</v>
+      </c>
+      <c r="J59" t="n">
+        <v>866</v>
+      </c>
+      <c r="K59" t="n">
+        <v>34</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1187</v>
+      </c>
+      <c r="M59" t="n">
+        <v>70</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>8uke_2ntcp</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>139268812</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>139270636</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>114</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4.661949</v>
+      </c>
+      <c r="G60" t="n">
+        <v>100</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>chengaii.sg</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>327</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2683</v>
+      </c>
+      <c r="K60" t="n">
+        <v>335</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9425</v>
+      </c>
+      <c r="M60" t="n">
+        <v>579</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>chengaii.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>196567990</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>196570955</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>144</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.672328</v>
+      </c>
+      <c r="G61" t="n">
+        <v>83</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>heimi26.sg</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>7157</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2906</v>
+      </c>
+      <c r="K61" t="n">
+        <v>345</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9859</v>
+      </c>
+      <c r="M61" t="n">
+        <v>583</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>heimi26.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>268041094</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>268044491</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Petaling Jaya, 47100 Selangor</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>10</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.401396</v>
+      </c>
+      <c r="G62" t="n">
+        <v>91</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>shuma3c1.sg</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>8644</v>
+      </c>
+      <c r="J62" t="n">
+        <v>480</v>
+      </c>
+      <c r="K62" t="n">
+        <v>88</v>
+      </c>
+      <c r="L62" t="n">
+        <v>965</v>
+      </c>
+      <c r="M62" t="n">
+        <v>114</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>shuma3c1.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>170710025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>170712404</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>808A Choa Chu Kang Ave 1, SG</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>37</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4.953129</v>
+      </c>
+      <c r="G63" t="n">
+        <v>95</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>zuhrahazura</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>4170</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1780</v>
+      </c>
+      <c r="K63" t="n">
+        <v>12</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3636</v>
+      </c>
+      <c r="M63" t="n">
+        <v>30</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>zuhrahazura</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>361959328</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>361978905</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1801</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.795855</v>
+      </c>
+      <c r="G64" t="n">
+        <v>48</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>B&amp;S Beauty Secret</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>11689</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3830</v>
+      </c>
+      <c r="K64" t="n">
+        <v>154</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10830</v>
+      </c>
+      <c r="M64" t="n">
+        <v>445</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>beautysecret.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>51134277</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>51135665</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>712</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4.760037</v>
+      </c>
+      <c r="G65" t="n">
+        <v>92</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Smart Storage</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>12876</v>
+      </c>
+      <c r="J65" t="n">
+        <v>9244</v>
+      </c>
+      <c r="K65" t="n">
+        <v>932</v>
+      </c>
+      <c r="L65" t="n">
+        <v>42882</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1808</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>spoetry.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>752469724</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>752489309</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>19</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4.773723</v>
+      </c>
+      <c r="G66" t="n">
+        <v>92</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>watchstrappro.sg</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>8630</v>
+      </c>
+      <c r="J66" t="n">
+        <v>22</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>135</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>watchstrappro.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>13898282</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>13899586</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BLOCK 219, ANG MO KIO AVENUE 1, SG</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>25</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.786164</v>
+      </c>
+      <c r="G67" t="n">
+        <v>85</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Ultronsg</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>13708</v>
+      </c>
+      <c r="J67" t="n">
+        <v>550</v>
+      </c>
+      <c r="K67" t="n">
+        <v>24</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1685</v>
+      </c>
+      <c r="M67" t="n">
+        <v>65</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>ultronsg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>220078100</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>220082179</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>391</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.813895</v>
+      </c>
+      <c r="G68" t="n">
+        <v>94</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>gxveleven.sg</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>7390</v>
+      </c>
+      <c r="J68" t="n">
+        <v>955</v>
+      </c>
+      <c r="K68" t="n">
+        <v>211</v>
+      </c>
+      <c r="L68" t="n">
+        <v>16730</v>
+      </c>
+      <c r="M68" t="n">
+        <v>625</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>gxveleven.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>213719630</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>213723348</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>145</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.808871</v>
+      </c>
+      <c r="G69" t="n">
+        <v>63</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>yesum.sg</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>17194</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6960</v>
+      </c>
+      <c r="K69" t="n">
+        <v>633</v>
+      </c>
+      <c r="L69" t="n">
+        <v>32022</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1041</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>yesum.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>302712656</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>302732241</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>339</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.848837</v>
+      </c>
+      <c r="G70" t="n">
+        <v>92</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>by1688.sg</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>13412</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1213</v>
+      </c>
+      <c r="K70" t="n">
+        <v>27</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M70" t="n">
+        <v>87</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>by1688.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12078788</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>12080090</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>IMM Building, #02-83 , 2 Jurong East Street 21, S609601, #02-83, SG 609601</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>396</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4.910695</v>
+      </c>
+      <c r="G71" t="n">
+        <v>96</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>12BUY.SG</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>5791</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14388</v>
+      </c>
+      <c r="K71" t="n">
+        <v>174</v>
+      </c>
+      <c r="L71" t="n">
+        <v>27749</v>
+      </c>
+      <c r="M71" t="n">
+        <v>355</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>12buy.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>668923729</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>668943314</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>（QMM）  514 CHAI CHEE LANE #07-08 SINGAPORE , ##07-08 SINGAPORE , SG 469029</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>123</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4.632195</v>
+      </c>
+      <c r="G72" t="n">
+        <v>92</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>KADA MALL</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>8332</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1756</v>
+      </c>
+      <c r="K72" t="n">
+        <v>82</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1993</v>
+      </c>
+      <c r="M72" t="n">
+        <v>129</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>kodak.w</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>84599953</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>84601430</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BLOCK 659, WOODLANDS RING ROAD, SG</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>136</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4.884114</v>
+      </c>
+      <c r="G73" t="n">
+        <v>95</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Happytimebuy</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3260</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4135</v>
+      </c>
+      <c r="K73" t="n">
+        <v>29</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4297</v>
+      </c>
+      <c r="M73" t="n">
+        <v>81</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>happytimebuy</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>645726205</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>645745790</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1 upper aljunied link, joo seng warehouse, #08-05, Singapore, SG</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>19</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.875214</v>
+      </c>
+      <c r="G74" t="n">
+        <v>100</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>FEINODI 3C Store</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1080</v>
+      </c>
+      <c r="J74" t="n">
+        <v>855</v>
+      </c>
+      <c r="K74" t="n">
+        <v>18</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1743</v>
+      </c>
+      <c r="M74" t="n">
+        <v>37</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>feinodi.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>181076293</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>181078923</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>659</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4.866359</v>
+      </c>
+      <c r="G75" t="n">
+        <v>99</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>3cmall88.sg</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>9747</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4969</v>
+      </c>
+      <c r="K75" t="n">
+        <v>114</v>
+      </c>
+      <c r="L75" t="n">
+        <v>15581</v>
+      </c>
+      <c r="M75" t="n">
+        <v>382</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>3cmall88.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>27987240</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>27988624</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>164 RACE COURSE ROAD, #01-01 , SG 218604</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>141</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.742964</v>
+      </c>
+      <c r="G76" t="n">
+        <v>56</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>mosimosi</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>8272</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7376</v>
+      </c>
+      <c r="K76" t="n">
+        <v>670</v>
+      </c>
+      <c r="L76" t="n">
+        <v>27077</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1230</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>jkmosimosi</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>217949200</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>217953135</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Overseas</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>299</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4.727118</v>
+      </c>
+      <c r="G77" t="n">
+        <v>77</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>funnymall.sg</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>16602</v>
+      </c>
+      <c r="J77" t="n">
+        <v>953</v>
+      </c>
+      <c r="K77" t="n">
+        <v>115</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5537</v>
+      </c>
+      <c r="M77" t="n">
+        <v>290</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>funnymall.sg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>192924</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>192931</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>APEX @ HENDERSON, 201 HENDERSON ROAD, SG</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>59</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4.844719</v>
+      </c>
+      <c r="G78" t="n">
+        <v>95</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>EasyGo Travel Sim</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1539</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1371</v>
+      </c>
+      <c r="K78" t="n">
+        <v>113</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7388</v>
+      </c>
+      <c r="M78" t="n">
+        <v>156</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>easygotravelsim</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Crawling/data/shopee_shops.xlsx
+++ b/Crawling/data/shopee_shops.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="312">
   <si>
     <t>shopid</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>105 Eunos Avenue 3, Hafary Centre, #06-12, SG 409836</t>
-  </si>
-  <si>
-    <t>SIM LIM SQUARE 1 ROCHOR CANAL ROAD, SG</t>
   </si>
   <si>
     <t>TANNERY ROAD, SG</t>
@@ -385,9 +382,6 @@
     <t>wowking｜Life Technology Digital</t>
   </si>
   <si>
-    <t>BELLS</t>
-  </si>
-  <si>
     <t>BENOSEM MART</t>
   </si>
   <si>
@@ -734,9 +728,6 @@
   </si>
   <si>
     <t>wowking.sg</t>
-  </si>
-  <si>
-    <t>huaweisg</t>
   </si>
   <si>
     <t>benosem.sg</t>
@@ -1322,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1395,7 +1386,7 @@
         <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>9782</v>
@@ -1413,7 +1404,7 @@
         <v>239</v>
       </c>
       <c r="N2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1439,7 +1430,7 @@
         <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3">
         <v>7416</v>
@@ -1457,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1471,7 +1462,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>21</v>
@@ -1483,7 +1474,7 @@
         <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>3480</v>
@@ -1501,7 +1492,7 @@
         <v>261</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1527,7 +1518,7 @@
         <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>10204</v>
@@ -1545,7 +1536,7 @@
         <v>414</v>
       </c>
       <c r="N5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1559,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -1571,7 +1562,7 @@
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6">
         <v>10363</v>
@@ -1589,7 +1580,7 @@
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1603,7 +1594,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>73</v>
@@ -1615,7 +1606,7 @@
         <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7">
         <v>8965</v>
@@ -1633,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1659,7 +1650,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8">
         <v>9398</v>
@@ -1677,7 +1668,7 @@
         <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1691,7 +1682,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>24</v>
@@ -1703,7 +1694,7 @@
         <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9">
         <v>6392</v>
@@ -1721,7 +1712,7 @@
         <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1735,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -1747,7 +1738,7 @@
         <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>8848</v>
@@ -1765,7 +1756,7 @@
         <v>296</v>
       </c>
       <c r="N10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1791,7 +1782,7 @@
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11">
         <v>4901</v>
@@ -1809,7 +1800,7 @@
         <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1823,7 +1814,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>85</v>
@@ -1835,7 +1826,7 @@
         <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I12">
         <v>10445</v>
@@ -1853,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1867,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13">
         <v>34</v>
@@ -1879,7 +1870,7 @@
         <v>84</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13">
         <v>6105</v>
@@ -1897,7 +1888,7 @@
         <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1911,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>27</v>
@@ -1923,7 +1914,7 @@
         <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14">
         <v>3060</v>
@@ -1941,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="N14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1967,7 +1958,7 @@
         <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15">
         <v>9021</v>
@@ -1985,7 +1976,7 @@
         <v>459</v>
       </c>
       <c r="N15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2011,7 +2002,7 @@
         <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16">
         <v>8538</v>
@@ -2029,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2043,7 +2034,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>36</v>
@@ -2055,7 +2046,7 @@
         <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17">
         <v>9991</v>
@@ -2073,7 +2064,7 @@
         <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2087,7 +2078,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>481</v>
@@ -2099,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18">
         <v>16220</v>
@@ -2117,7 +2108,7 @@
         <v>470</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2143,7 +2134,7 @@
         <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19">
         <v>7</v>
@@ -2161,7 +2152,7 @@
         <v>70</v>
       </c>
       <c r="N19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2187,7 +2178,7 @@
         <v>91</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20">
         <v>4688</v>
@@ -2205,7 +2196,7 @@
         <v>49</v>
       </c>
       <c r="N20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2231,7 +2222,7 @@
         <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I21">
         <v>12876</v>
@@ -2249,7 +2240,7 @@
         <v>1808</v>
       </c>
       <c r="N21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2275,7 +2266,7 @@
         <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I22">
         <v>7259</v>
@@ -2293,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="N22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2307,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23">
         <v>229</v>
@@ -2319,7 +2310,7 @@
         <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I23">
         <v>5357</v>
@@ -2337,7 +2328,7 @@
         <v>54</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2351,7 +2342,7 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <v>336</v>
@@ -2363,7 +2354,7 @@
         <v>94</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24">
         <v>16414</v>
@@ -2381,7 +2372,7 @@
         <v>402</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2395,7 +2386,7 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>70</v>
@@ -2407,7 +2398,7 @@
         <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25">
         <v>3498</v>
@@ -2425,7 +2416,7 @@
         <v>44</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2451,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I26">
         <v>3251</v>
@@ -2469,7 +2460,7 @@
         <v>98</v>
       </c>
       <c r="N26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2495,7 +2486,7 @@
         <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I27">
         <v>3505</v>
@@ -2513,7 +2504,7 @@
         <v>87</v>
       </c>
       <c r="N27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2527,7 +2518,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E28">
         <v>611</v>
@@ -2539,7 +2530,7 @@
         <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I28">
         <v>8242</v>
@@ -2557,7 +2548,7 @@
         <v>166</v>
       </c>
       <c r="N28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2583,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29">
         <v>3306</v>
@@ -2601,147 +2592,147 @@
         <v>145</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>46769394</v>
+        <v>703107608</v>
       </c>
       <c r="B30">
-        <v>46770780</v>
+        <v>703127193</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F30">
-        <v>4.77</v>
+        <v>4.84</v>
       </c>
       <c r="G30">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I30">
-        <v>3410</v>
+        <v>11628</v>
       </c>
       <c r="J30">
-        <v>313</v>
+        <v>791</v>
       </c>
       <c r="K30">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L30">
-        <v>1687</v>
+        <v>2215</v>
       </c>
       <c r="M30">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>703107608</v>
+        <v>21596473</v>
       </c>
       <c r="B31">
-        <v>703127193</v>
+        <v>21597809</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>1079</v>
       </c>
       <c r="F31">
-        <v>4.84</v>
+        <v>4.89</v>
       </c>
       <c r="G31">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I31">
-        <v>11628</v>
+        <v>11876</v>
       </c>
       <c r="J31">
-        <v>791</v>
+        <v>4772</v>
       </c>
       <c r="K31">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="L31">
-        <v>2215</v>
+        <v>39605</v>
       </c>
       <c r="M31">
-        <v>59</v>
+        <v>649</v>
       </c>
       <c r="N31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>21596473</v>
+        <v>127826146</v>
       </c>
       <c r="B32">
-        <v>21597809</v>
+        <v>127827970</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E32">
-        <v>1079</v>
+        <v>420</v>
       </c>
       <c r="F32">
-        <v>4.89</v>
+        <v>4.79</v>
       </c>
       <c r="G32">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I32">
-        <v>11876</v>
+        <v>11974</v>
       </c>
       <c r="J32">
-        <v>4772</v>
+        <v>229</v>
       </c>
       <c r="K32">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="L32">
-        <v>39605</v>
+        <v>977</v>
       </c>
       <c r="M32">
-        <v>649</v>
+        <v>27</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>127826146</v>
+        <v>54615708</v>
       </c>
       <c r="B33">
-        <v>127827970</v>
+        <v>54617134</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -2750,262 +2741,262 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>420</v>
+        <v>9145</v>
       </c>
       <c r="F33">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="G33">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I33">
-        <v>11974</v>
+        <v>400</v>
       </c>
       <c r="J33">
-        <v>229</v>
+        <v>69457</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>9611</v>
       </c>
       <c r="L33">
-        <v>977</v>
+        <v>664108</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>26461</v>
       </c>
       <c r="N33" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>54615708</v>
+        <v>71443621</v>
       </c>
       <c r="B34">
-        <v>54617134</v>
+        <v>71445082</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E34">
-        <v>9145</v>
+        <v>62</v>
       </c>
       <c r="F34">
-        <v>4.8</v>
+        <v>4.93</v>
       </c>
       <c r="G34">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I34">
-        <v>400</v>
+        <v>11913</v>
       </c>
       <c r="J34">
-        <v>69457</v>
+        <v>2751</v>
       </c>
       <c r="K34">
-        <v>9611</v>
+        <v>7</v>
       </c>
       <c r="L34">
-        <v>664108</v>
+        <v>3766</v>
       </c>
       <c r="M34">
-        <v>26461</v>
+        <v>42</v>
       </c>
       <c r="N34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>71443621</v>
+        <v>218198564</v>
       </c>
       <c r="B35">
-        <v>71445082</v>
+        <v>218202512</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="F35">
         <v>4.93</v>
       </c>
       <c r="G35">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I35">
-        <v>11913</v>
+        <v>8392</v>
       </c>
       <c r="J35">
-        <v>2751</v>
+        <v>411</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L35">
-        <v>3766</v>
+        <v>3342</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36">
-        <v>218198564</v>
+        <v>320070742</v>
       </c>
       <c r="B36">
-        <v>218202512</v>
+        <v>320090341</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="F36">
-        <v>4.93</v>
+        <v>4.85</v>
       </c>
       <c r="G36">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I36">
-        <v>8392</v>
+        <v>9584</v>
       </c>
       <c r="J36">
-        <v>411</v>
+        <v>14628</v>
       </c>
       <c r="K36">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="L36">
-        <v>3342</v>
+        <v>20691</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>573</v>
       </c>
       <c r="N36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37">
-        <v>320070742</v>
+        <v>135527190</v>
       </c>
       <c r="B37">
-        <v>320090341</v>
+        <v>135529014</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="F37">
-        <v>4.85</v>
+        <v>4.95</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I37">
-        <v>9584</v>
+        <v>8829</v>
       </c>
       <c r="J37">
-        <v>14628</v>
+        <v>2837</v>
       </c>
       <c r="K37">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="L37">
-        <v>20691</v>
+        <v>8007</v>
       </c>
       <c r="M37">
-        <v>573</v>
+        <v>64</v>
       </c>
       <c r="N37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38">
-        <v>135527190</v>
+        <v>182541768</v>
       </c>
       <c r="B38">
-        <v>135529014</v>
+        <v>182544432</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E38">
-        <v>85</v>
+        <v>575</v>
       </c>
       <c r="F38">
-        <v>4.95</v>
+        <v>4.84</v>
       </c>
       <c r="G38">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I38">
-        <v>8829</v>
+        <v>10393</v>
       </c>
       <c r="J38">
-        <v>2837</v>
+        <v>331</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="L38">
-        <v>8007</v>
+        <v>9331</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="N38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>182541768</v>
+        <v>489184415</v>
       </c>
       <c r="B39">
-        <v>182544432</v>
+        <v>489203993</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -3014,1054 +3005,1054 @@
         <v>14</v>
       </c>
       <c r="E39">
-        <v>575</v>
+        <v>186</v>
       </c>
       <c r="F39">
-        <v>4.84</v>
+        <v>4.8</v>
       </c>
       <c r="G39">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I39">
-        <v>10393</v>
+        <v>15766</v>
       </c>
       <c r="J39">
-        <v>331</v>
+        <v>963</v>
       </c>
       <c r="K39">
+        <v>41</v>
+      </c>
+      <c r="L39">
+        <v>2844</v>
+      </c>
+      <c r="M39">
         <v>115</v>
       </c>
-      <c r="L39">
-        <v>9331</v>
-      </c>
-      <c r="M39">
-        <v>222</v>
-      </c>
       <c r="N39" t="s">
-        <v>246</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>489184415</v>
+        <v>268028767</v>
       </c>
       <c r="B40">
-        <v>489203993</v>
+        <v>268032160</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E40">
-        <v>186</v>
+        <v>685</v>
       </c>
       <c r="F40">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="G40">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I40">
-        <v>15766</v>
+        <v>16040</v>
       </c>
       <c r="J40">
-        <v>963</v>
+        <v>36563</v>
       </c>
       <c r="K40">
-        <v>41</v>
+        <v>689</v>
       </c>
       <c r="L40">
-        <v>2844</v>
+        <v>51606</v>
       </c>
       <c r="M40">
-        <v>115</v>
+        <v>1531</v>
       </c>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>268028767</v>
+        <v>628365983</v>
       </c>
       <c r="B41">
-        <v>268032160</v>
+        <v>628385568</v>
       </c>
       <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>1789</v>
+      </c>
+      <c r="F41">
+        <v>4.79</v>
+      </c>
+      <c r="G41">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41">
+        <v>15446</v>
+      </c>
+      <c r="J41">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>615</v>
+      </c>
+      <c r="M41">
         <v>37</v>
       </c>
-      <c r="D41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41">
-        <v>685</v>
-      </c>
-      <c r="F41">
-        <v>4.83</v>
-      </c>
-      <c r="G41">
-        <v>98</v>
-      </c>
-      <c r="H41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41">
-        <v>16040</v>
-      </c>
-      <c r="J41">
-        <v>36563</v>
-      </c>
-      <c r="K41">
-        <v>689</v>
-      </c>
-      <c r="L41">
-        <v>51606</v>
-      </c>
-      <c r="M41">
-        <v>1531</v>
-      </c>
       <c r="N41" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>628365983</v>
+        <v>484374948</v>
       </c>
       <c r="B42">
-        <v>628385568</v>
+        <v>484394526</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E42">
-        <v>1789</v>
+        <v>254</v>
       </c>
       <c r="F42">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="G42">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42">
-        <v>15446</v>
+        <v>15198</v>
       </c>
       <c r="J42">
-        <v>76</v>
+        <v>2306</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="L42">
-        <v>615</v>
+        <v>9569</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="N42" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>484374948</v>
+        <v>182919813</v>
       </c>
       <c r="B43">
-        <v>484394526</v>
+        <v>182922482</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="F43">
-        <v>4.76</v>
+        <v>4.86</v>
       </c>
       <c r="G43">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43">
-        <v>15198</v>
+        <v>11028</v>
       </c>
       <c r="J43">
-        <v>2306</v>
+        <v>3059</v>
       </c>
       <c r="K43">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="L43">
-        <v>9569</v>
+        <v>1511</v>
       </c>
       <c r="M43">
-        <v>436</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>182919813</v>
+        <v>13486527</v>
       </c>
       <c r="B44">
-        <v>182922482</v>
+        <v>13487830</v>
       </c>
       <c r="C44" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>513</v>
       </c>
       <c r="F44">
-        <v>4.86</v>
+        <v>4.78</v>
       </c>
       <c r="G44">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I44">
-        <v>11028</v>
+        <v>5653</v>
       </c>
       <c r="J44">
-        <v>3059</v>
+        <v>4854</v>
       </c>
       <c r="K44">
-        <v>16</v>
+        <v>543</v>
       </c>
       <c r="L44">
-        <v>1511</v>
+        <v>27076</v>
       </c>
       <c r="M44">
-        <v>31</v>
+        <v>986</v>
       </c>
       <c r="N44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>13486527</v>
+        <v>12480907</v>
       </c>
       <c r="B45">
-        <v>13487830</v>
+        <v>12482210</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45">
-        <v>513</v>
+        <v>210</v>
       </c>
       <c r="F45">
-        <v>4.78</v>
+        <v>4.85</v>
       </c>
       <c r="G45">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I45">
-        <v>5653</v>
+        <v>12238</v>
       </c>
       <c r="J45">
-        <v>4854</v>
+        <v>7850</v>
       </c>
       <c r="K45">
-        <v>543</v>
+        <v>464</v>
       </c>
       <c r="L45">
-        <v>27076</v>
+        <v>60324</v>
       </c>
       <c r="M45">
-        <v>986</v>
+        <v>1600</v>
       </c>
       <c r="N45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>12480907</v>
+        <v>35062141</v>
       </c>
       <c r="B46">
-        <v>12482210</v>
+        <v>35063525</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="F46">
         <v>4.85</v>
       </c>
       <c r="G46">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="H46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46">
-        <v>12238</v>
+        <v>1600</v>
       </c>
       <c r="J46">
-        <v>7850</v>
+        <v>472</v>
       </c>
       <c r="K46">
-        <v>464</v>
+        <v>180</v>
       </c>
       <c r="L46">
-        <v>60324</v>
+        <v>11393</v>
       </c>
       <c r="M46">
-        <v>1600</v>
+        <v>244</v>
       </c>
       <c r="N46" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>35062141</v>
+        <v>189061974</v>
       </c>
       <c r="B47">
-        <v>35063525</v>
+        <v>189064731</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47">
         <v>54</v>
       </c>
       <c r="F47">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="G47">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I47">
-        <v>1600</v>
+        <v>4453</v>
       </c>
       <c r="J47">
-        <v>472</v>
+        <v>1306</v>
       </c>
       <c r="K47">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="L47">
-        <v>11393</v>
+        <v>3164</v>
       </c>
       <c r="M47">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="N47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>189061974</v>
+        <v>785454343</v>
       </c>
       <c r="B48">
-        <v>189064731</v>
+        <v>785438096</v>
       </c>
       <c r="C48" t="s">
         <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F48">
-        <v>4.9</v>
+        <v>4.81</v>
       </c>
       <c r="G48">
         <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I48">
-        <v>4453</v>
+        <v>7399</v>
       </c>
       <c r="J48">
-        <v>1306</v>
+        <v>11966</v>
       </c>
       <c r="K48">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="L48">
-        <v>3164</v>
+        <v>11781</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="N48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>785454343</v>
+        <v>830853957</v>
       </c>
       <c r="B49">
-        <v>785438096</v>
+        <v>830839375</v>
       </c>
       <c r="C49" t="s">
         <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>4.76</v>
+      </c>
+      <c r="G49">
         <v>90</v>
       </c>
-      <c r="F49">
-        <v>4.81</v>
-      </c>
-      <c r="G49">
-        <v>97</v>
-      </c>
       <c r="H49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I49">
-        <v>7399</v>
+        <v>5353</v>
       </c>
       <c r="J49">
-        <v>11966</v>
+        <v>306</v>
       </c>
       <c r="K49">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="L49">
-        <v>11781</v>
+        <v>608</v>
       </c>
       <c r="M49">
-        <v>429</v>
+        <v>26</v>
       </c>
       <c r="N49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>830853957</v>
+        <v>478791243</v>
       </c>
       <c r="B50">
-        <v>830839375</v>
+        <v>478810820</v>
       </c>
       <c r="C50" t="s">
         <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="F50">
-        <v>4.76</v>
+        <v>4.67</v>
       </c>
       <c r="G50">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I50">
-        <v>5353</v>
+        <v>16213</v>
       </c>
       <c r="J50">
-        <v>306</v>
+        <v>1127</v>
       </c>
       <c r="K50">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L50">
-        <v>608</v>
+        <v>1057</v>
       </c>
       <c r="M50">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="N50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>478791243</v>
+        <v>415978729</v>
       </c>
       <c r="B51">
-        <v>478810820</v>
+        <v>415998306</v>
       </c>
       <c r="C51" t="s">
         <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F51">
-        <v>4.67</v>
+        <v>4.95</v>
       </c>
       <c r="G51">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I51">
-        <v>16213</v>
+        <v>16934</v>
       </c>
       <c r="J51">
-        <v>1127</v>
+        <v>840</v>
       </c>
       <c r="K51">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>1057</v>
+        <v>888</v>
       </c>
       <c r="M51">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="N51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>415978729</v>
+        <v>262807707</v>
       </c>
       <c r="B52">
-        <v>415998306</v>
+        <v>262809912</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F52">
-        <v>4.95</v>
+        <v>4.87</v>
       </c>
       <c r="G52">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I52">
-        <v>16934</v>
+        <v>7060</v>
       </c>
       <c r="J52">
-        <v>840</v>
+        <v>5173</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>575</v>
       </c>
       <c r="L52">
-        <v>888</v>
+        <v>66908</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>1506</v>
       </c>
       <c r="N52" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>262807707</v>
+        <v>498173133</v>
       </c>
       <c r="B53">
-        <v>262809912</v>
+        <v>498192711</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="F53">
-        <v>4.87</v>
+        <v>4.76</v>
       </c>
       <c r="G53">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I53">
-        <v>7060</v>
+        <v>11448</v>
       </c>
       <c r="J53">
-        <v>5173</v>
+        <v>847</v>
       </c>
       <c r="K53">
-        <v>575</v>
+        <v>26</v>
       </c>
       <c r="L53">
-        <v>66908</v>
+        <v>1026</v>
       </c>
       <c r="M53">
-        <v>1506</v>
+        <v>44</v>
       </c>
       <c r="N53" t="s">
-        <v>144</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>498173133</v>
+        <v>2417589</v>
       </c>
       <c r="B54">
-        <v>498192711</v>
+        <v>2418868</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E54">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="F54">
-        <v>4.76</v>
+        <v>4.82</v>
       </c>
       <c r="G54">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I54">
-        <v>11448</v>
+        <v>10690</v>
       </c>
       <c r="J54">
-        <v>847</v>
+        <v>10492</v>
       </c>
       <c r="K54">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="L54">
-        <v>1026</v>
+        <v>7032</v>
       </c>
       <c r="M54">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="N54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>2417589</v>
+        <v>182524985</v>
       </c>
       <c r="B55">
-        <v>2418868</v>
+        <v>182527649</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="F55">
-        <v>4.82</v>
+        <v>4.91</v>
       </c>
       <c r="G55">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="H55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I55">
-        <v>10690</v>
+        <v>3783</v>
       </c>
       <c r="J55">
-        <v>10492</v>
+        <v>149</v>
       </c>
       <c r="K55">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="L55">
-        <v>7032</v>
+        <v>905</v>
       </c>
       <c r="M55">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="N55" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>182524985</v>
+        <v>254321715</v>
       </c>
       <c r="B56">
-        <v>182527649</v>
+        <v>254322479</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>4.91</v>
+        <v>4.65</v>
       </c>
       <c r="G56">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I56">
-        <v>3783</v>
+        <v>7032</v>
       </c>
       <c r="J56">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>114</v>
+      </c>
+      <c r="M56">
         <v>6</v>
       </c>
-      <c r="L56">
-        <v>905</v>
-      </c>
-      <c r="M56">
-        <v>17</v>
-      </c>
       <c r="N56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>254321715</v>
+        <v>480420433</v>
       </c>
       <c r="B57">
-        <v>254322479</v>
+        <v>480440010</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="F57">
-        <v>4.65</v>
+        <v>4.83</v>
       </c>
       <c r="G57">
         <v>96</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I57">
-        <v>7032</v>
+        <v>6914</v>
       </c>
       <c r="J57">
-        <v>120</v>
+        <v>4580</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="L57">
-        <v>114</v>
+        <v>8105</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="N57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>480420433</v>
+        <v>338563812</v>
       </c>
       <c r="B58">
-        <v>480440010</v>
+        <v>338583387</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58">
-        <v>297</v>
+        <v>90</v>
       </c>
       <c r="F58">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="G58">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I58">
-        <v>6914</v>
+        <v>9480</v>
       </c>
       <c r="J58">
-        <v>4580</v>
+        <v>14252</v>
       </c>
       <c r="K58">
-        <v>73</v>
+        <v>559</v>
       </c>
       <c r="L58">
-        <v>8105</v>
+        <v>36027</v>
       </c>
       <c r="M58">
-        <v>255</v>
+        <v>1186</v>
       </c>
       <c r="N58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>338563812</v>
+        <v>189166995</v>
       </c>
       <c r="B59">
-        <v>338583387</v>
+        <v>189169757</v>
       </c>
       <c r="C59" t="s">
         <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F59">
-        <v>4.82</v>
+        <v>4.95</v>
       </c>
       <c r="G59">
         <v>98</v>
       </c>
       <c r="H59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I59">
-        <v>9480</v>
+        <v>1713</v>
       </c>
       <c r="J59">
-        <v>14252</v>
+        <v>9245</v>
       </c>
       <c r="K59">
-        <v>559</v>
+        <v>14</v>
       </c>
       <c r="L59">
-        <v>36027</v>
+        <v>11610</v>
       </c>
       <c r="M59">
-        <v>1186</v>
+        <v>88</v>
       </c>
       <c r="N59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>189166995</v>
+        <v>325375667</v>
       </c>
       <c r="B60">
-        <v>189169757</v>
+        <v>325395266</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="F60">
-        <v>4.95</v>
+        <v>4.82</v>
       </c>
       <c r="G60">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I60">
-        <v>1713</v>
+        <v>1810</v>
       </c>
       <c r="J60">
-        <v>9245</v>
+        <v>2040</v>
       </c>
       <c r="K60">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L60">
-        <v>11610</v>
+        <v>2104</v>
       </c>
       <c r="M60">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="N60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>325375667</v>
+        <v>241947465</v>
       </c>
       <c r="B61">
-        <v>325395266</v>
+        <v>241953055</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E61">
-        <v>229</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>4.82</v>
+        <v>4.92</v>
       </c>
       <c r="G61">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I61">
-        <v>1810</v>
+        <v>15183</v>
       </c>
       <c r="J61">
-        <v>2040</v>
+        <v>30</v>
       </c>
       <c r="K61">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="L61">
-        <v>2104</v>
+        <v>1029</v>
       </c>
       <c r="M61">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="N61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>241947465</v>
+        <v>95236751</v>
       </c>
       <c r="B62">
-        <v>241953055</v>
+        <v>95238229</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>363</v>
       </c>
       <c r="F62">
-        <v>4.92</v>
+        <v>4.91</v>
       </c>
       <c r="G62">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I62">
-        <v>15183</v>
+        <v>975</v>
       </c>
       <c r="J62">
-        <v>30</v>
+        <v>39172</v>
       </c>
       <c r="K62">
-        <v>5</v>
+        <v>607</v>
       </c>
       <c r="L62">
-        <v>1029</v>
+        <v>111567</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>1540</v>
       </c>
       <c r="N62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>95236751</v>
+        <v>213436201</v>
       </c>
       <c r="B63">
-        <v>95238229</v>
+        <v>213439902</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -4070,42 +4061,42 @@
         <v>14</v>
       </c>
       <c r="E63">
-        <v>363</v>
+        <v>66</v>
       </c>
       <c r="F63">
-        <v>4.91</v>
+        <v>4.81</v>
       </c>
       <c r="G63">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I63">
-        <v>975</v>
+        <v>991</v>
       </c>
       <c r="J63">
-        <v>39172</v>
+        <v>1108</v>
       </c>
       <c r="K63">
-        <v>607</v>
+        <v>48</v>
       </c>
       <c r="L63">
-        <v>111567</v>
+        <v>2879</v>
       </c>
       <c r="M63">
-        <v>1540</v>
+        <v>92</v>
       </c>
       <c r="N63" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>213436201</v>
+        <v>89768730</v>
       </c>
       <c r="B64">
-        <v>213439902</v>
+        <v>89770209</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -4114,1054 +4105,1054 @@
         <v>14</v>
       </c>
       <c r="E64">
+        <v>1734</v>
+      </c>
+      <c r="F64">
+        <v>4.79</v>
+      </c>
+      <c r="G64">
         <v>66</v>
       </c>
-      <c r="F64">
-        <v>4.81</v>
-      </c>
-      <c r="G64">
-        <v>96</v>
-      </c>
       <c r="H64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I64">
-        <v>991</v>
+        <v>14953</v>
       </c>
       <c r="J64">
-        <v>1108</v>
+        <v>10087</v>
       </c>
       <c r="K64">
-        <v>48</v>
+        <v>1042</v>
       </c>
       <c r="L64">
-        <v>2879</v>
+        <v>66349</v>
       </c>
       <c r="M64">
-        <v>92</v>
+        <v>2794</v>
       </c>
       <c r="N64" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>89768730</v>
+        <v>329852619</v>
       </c>
       <c r="B65">
-        <v>89770209</v>
+        <v>329872194</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E65">
-        <v>1734</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>4.79</v>
+        <v>4.88</v>
       </c>
       <c r="G65">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I65">
-        <v>14953</v>
+        <v>23340</v>
       </c>
       <c r="J65">
-        <v>10087</v>
+        <v>161</v>
       </c>
       <c r="K65">
-        <v>1042</v>
+        <v>25</v>
       </c>
       <c r="L65">
-        <v>66349</v>
+        <v>2381</v>
       </c>
       <c r="M65">
-        <v>2794</v>
+        <v>40</v>
       </c>
       <c r="N65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>329852619</v>
+        <v>220997827</v>
       </c>
       <c r="B66">
-        <v>329872194</v>
+        <v>221001964</v>
       </c>
       <c r="C66" t="s">
         <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F66">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="G66">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="H66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I66">
-        <v>23340</v>
+        <v>3956</v>
       </c>
       <c r="J66">
-        <v>161</v>
+        <v>6934</v>
       </c>
       <c r="K66">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="L66">
-        <v>2381</v>
+        <v>14246</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="N66" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>220997827</v>
+        <v>346434736</v>
       </c>
       <c r="B67">
-        <v>221001964</v>
+        <v>346454311</v>
       </c>
       <c r="C67" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E67">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="F67">
-        <v>4.89</v>
+        <v>4.85</v>
       </c>
       <c r="G67">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I67">
-        <v>3956</v>
+        <v>4645</v>
       </c>
       <c r="J67">
-        <v>6934</v>
+        <v>3014</v>
       </c>
       <c r="K67">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>14246</v>
+        <v>2602</v>
       </c>
       <c r="M67">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="N67" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>346434736</v>
+        <v>453949818</v>
       </c>
       <c r="B68">
-        <v>346454311</v>
+        <v>453969395</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E68">
-        <v>346</v>
+        <v>145</v>
       </c>
       <c r="F68">
         <v>4.85</v>
       </c>
       <c r="G68">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I68">
-        <v>4645</v>
+        <v>4971</v>
       </c>
       <c r="J68">
-        <v>3014</v>
+        <v>2260</v>
       </c>
       <c r="K68">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L68">
-        <v>2602</v>
+        <v>4756</v>
       </c>
       <c r="M68">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="N68" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>453949818</v>
+        <v>236279386</v>
       </c>
       <c r="B69">
-        <v>453969395</v>
+        <v>236284505</v>
       </c>
       <c r="C69" t="s">
         <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F69">
-        <v>4.85</v>
+        <v>4.88</v>
       </c>
       <c r="G69">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I69">
-        <v>4971</v>
+        <v>13847</v>
       </c>
       <c r="J69">
-        <v>2260</v>
+        <v>571</v>
       </c>
       <c r="K69">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L69">
-        <v>4756</v>
+        <v>6977</v>
       </c>
       <c r="M69">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="N69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>236279386</v>
+        <v>217949200</v>
       </c>
       <c r="B70">
-        <v>236284505</v>
+        <v>217953135</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E70">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="F70">
-        <v>4.88</v>
+        <v>4.73</v>
       </c>
       <c r="G70">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I70">
-        <v>13847</v>
+        <v>16602</v>
       </c>
       <c r="J70">
-        <v>571</v>
+        <v>953</v>
       </c>
       <c r="K70">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="L70">
-        <v>6977</v>
+        <v>5537</v>
       </c>
       <c r="M70">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="N70" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>217949200</v>
+        <v>138542808</v>
       </c>
       <c r="B71">
-        <v>217953135</v>
+        <v>138544632</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E71">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F71">
-        <v>4.73</v>
+        <v>4.78</v>
       </c>
       <c r="G71">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="H71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I71">
-        <v>16602</v>
+        <v>12859</v>
       </c>
       <c r="J71">
-        <v>953</v>
+        <v>1967</v>
       </c>
       <c r="K71">
-        <v>115</v>
+        <v>931</v>
       </c>
       <c r="L71">
-        <v>5537</v>
+        <v>46513</v>
       </c>
       <c r="M71">
-        <v>290</v>
+        <v>1791</v>
       </c>
       <c r="N71" t="s">
-        <v>162</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>138542808</v>
+        <v>127249066</v>
       </c>
       <c r="B72">
-        <v>138544632</v>
+        <v>127250890</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E72">
-        <v>305</v>
+        <v>4633</v>
       </c>
       <c r="F72">
-        <v>4.78</v>
+        <v>4.81</v>
       </c>
       <c r="G72">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I72">
-        <v>12859</v>
+        <v>488</v>
       </c>
       <c r="J72">
-        <v>1967</v>
+        <v>29195</v>
       </c>
       <c r="K72">
-        <v>931</v>
+        <v>1359</v>
       </c>
       <c r="L72">
-        <v>46513</v>
+        <v>114778</v>
       </c>
       <c r="M72">
-        <v>1791</v>
+        <v>4189</v>
       </c>
       <c r="N72" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>127249066</v>
+        <v>368100296</v>
       </c>
       <c r="B73">
-        <v>127250890</v>
+        <v>368119873</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E73">
-        <v>4633</v>
+        <v>83</v>
       </c>
       <c r="F73">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="G73">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I73">
-        <v>488</v>
+        <v>4329</v>
       </c>
       <c r="J73">
-        <v>29195</v>
+        <v>11335</v>
       </c>
       <c r="K73">
-        <v>1359</v>
+        <v>212</v>
       </c>
       <c r="L73">
-        <v>114778</v>
+        <v>22364</v>
       </c>
       <c r="M73">
-        <v>4189</v>
+        <v>676</v>
       </c>
       <c r="N73" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>368100296</v>
+        <v>446883346</v>
       </c>
       <c r="B74">
-        <v>368119873</v>
+        <v>446902923</v>
       </c>
       <c r="C74" t="s">
         <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="F74">
-        <v>4.85</v>
+        <v>4.94</v>
       </c>
       <c r="G74">
         <v>100</v>
       </c>
       <c r="H74" t="s">
+        <v>164</v>
+      </c>
+      <c r="I74">
+        <v>3940</v>
+      </c>
+      <c r="J74">
         <v>165</v>
       </c>
-      <c r="I74">
-        <v>4329</v>
-      </c>
-      <c r="J74">
-        <v>11335</v>
-      </c>
       <c r="K74">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="L74">
-        <v>22364</v>
+        <v>6544</v>
       </c>
       <c r="M74">
-        <v>676</v>
+        <v>70</v>
       </c>
       <c r="N74" t="s">
-        <v>274</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>446883346</v>
+        <v>154953096</v>
       </c>
       <c r="B75">
-        <v>446902923</v>
+        <v>154955016</v>
       </c>
       <c r="C75" t="s">
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E75">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F75">
         <v>4.94</v>
       </c>
       <c r="G75">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I75">
-        <v>3940</v>
+        <v>3174</v>
       </c>
       <c r="J75">
-        <v>165</v>
+        <v>4786</v>
       </c>
       <c r="K75">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="L75">
-        <v>6544</v>
+        <v>23706</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="N75" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>154953096</v>
+        <v>63663065</v>
       </c>
       <c r="B76">
-        <v>154955016</v>
+        <v>63664508</v>
       </c>
       <c r="C76" t="s">
         <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F76">
-        <v>4.94</v>
+        <v>4.66</v>
       </c>
       <c r="G76">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="H76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I76">
-        <v>3174</v>
+        <v>11748</v>
       </c>
       <c r="J76">
-        <v>4786</v>
+        <v>4206</v>
       </c>
       <c r="K76">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="L76">
-        <v>23706</v>
+        <v>5997</v>
       </c>
       <c r="M76">
-        <v>211</v>
+        <v>361</v>
       </c>
       <c r="N76" t="s">
-        <v>275</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>63663065</v>
+        <v>327481064</v>
       </c>
       <c r="B77">
-        <v>63664508</v>
+        <v>327500639</v>
       </c>
       <c r="C77" t="s">
         <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F77">
-        <v>4.66</v>
+        <v>4.86</v>
       </c>
       <c r="G77">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I77">
-        <v>11748</v>
+        <v>10911</v>
       </c>
       <c r="J77">
-        <v>4206</v>
+        <v>6059</v>
       </c>
       <c r="K77">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L77">
-        <v>5997</v>
+        <v>20068</v>
       </c>
       <c r="M77">
-        <v>361</v>
+        <v>506</v>
       </c>
       <c r="N77" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>327481064</v>
+        <v>890696211</v>
       </c>
       <c r="B78">
-        <v>327500639</v>
+        <v>890742025</v>
       </c>
       <c r="C78" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E78">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="F78">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="G78">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I78">
-        <v>10911</v>
+        <v>12177</v>
       </c>
       <c r="J78">
-        <v>6059</v>
+        <v>70</v>
       </c>
       <c r="K78">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>20068</v>
+        <v>144</v>
       </c>
       <c r="M78">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="N78" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>890696211</v>
+        <v>15997873</v>
       </c>
       <c r="B79">
-        <v>890742025</v>
+        <v>15999209</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E79">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="F79">
-        <v>4.82</v>
+        <v>4.94</v>
       </c>
       <c r="G79">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I79">
-        <v>12177</v>
+        <v>5770</v>
       </c>
       <c r="J79">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>144</v>
+        <v>1355</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N79" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>15997873</v>
+        <v>422388243</v>
       </c>
       <c r="B80">
-        <v>15999209</v>
+        <v>422407820</v>
       </c>
       <c r="C80" t="s">
         <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E80">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F80">
-        <v>4.94</v>
+        <v>4.93</v>
       </c>
       <c r="G80">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I80">
-        <v>5770</v>
+        <v>11249</v>
       </c>
       <c r="J80">
-        <v>172</v>
+        <v>5463</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L80">
-        <v>1355</v>
+        <v>2589</v>
       </c>
       <c r="M80">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N80" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81">
-        <v>422388243</v>
+        <v>326528295</v>
       </c>
       <c r="B81">
-        <v>422407820</v>
+        <v>326547870</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E81">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="F81">
-        <v>4.93</v>
+        <v>4.87</v>
       </c>
       <c r="G81">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I81">
-        <v>11249</v>
+        <v>4610</v>
       </c>
       <c r="J81">
-        <v>5463</v>
+        <v>4461</v>
       </c>
       <c r="K81">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="L81">
-        <v>2589</v>
+        <v>7930</v>
       </c>
       <c r="M81">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="N81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
-        <v>326528295</v>
+        <v>91594760</v>
       </c>
       <c r="B82">
-        <v>326547870</v>
+        <v>91596238</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E82">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="F82">
-        <v>4.87</v>
+        <v>4.9</v>
       </c>
       <c r="G82">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I82">
-        <v>4610</v>
+        <v>1326</v>
       </c>
       <c r="J82">
-        <v>4461</v>
+        <v>122</v>
       </c>
       <c r="K82">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>7930</v>
+        <v>534</v>
       </c>
       <c r="M82">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="N82" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83">
-        <v>91594760</v>
+        <v>290965435</v>
       </c>
       <c r="B83">
-        <v>91596238</v>
+        <v>290984673</v>
       </c>
       <c r="C83" t="s">
         <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="F83">
-        <v>4.9</v>
+        <v>4.97</v>
       </c>
       <c r="G83">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I83">
-        <v>1326</v>
+        <v>5639</v>
       </c>
       <c r="J83">
-        <v>122</v>
+        <v>5387</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L83">
-        <v>534</v>
+        <v>16388</v>
       </c>
       <c r="M83">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="N83" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84">
-        <v>290965435</v>
+        <v>348277166</v>
       </c>
       <c r="B84">
-        <v>290984673</v>
+        <v>348296741</v>
       </c>
       <c r="C84" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E84">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="F84">
-        <v>4.97</v>
+        <v>4.72</v>
       </c>
       <c r="G84">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="H84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I84">
-        <v>5639</v>
+        <v>14101</v>
       </c>
       <c r="J84">
-        <v>5387</v>
+        <v>3995</v>
       </c>
       <c r="K84">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="L84">
-        <v>16388</v>
+        <v>11485</v>
       </c>
       <c r="M84">
-        <v>68</v>
+        <v>580</v>
       </c>
       <c r="N84" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85">
-        <v>348277166</v>
+        <v>299742</v>
       </c>
       <c r="B85">
-        <v>348296741</v>
+        <v>299751</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E85">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F85">
-        <v>4.72</v>
+        <v>4.77</v>
       </c>
       <c r="G85">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I85">
-        <v>14101</v>
+        <v>16070</v>
       </c>
       <c r="J85">
-        <v>3995</v>
+        <v>27001</v>
       </c>
       <c r="K85">
-        <v>322</v>
+        <v>726</v>
       </c>
       <c r="L85">
-        <v>11485</v>
+        <v>52063</v>
       </c>
       <c r="M85">
-        <v>580</v>
+        <v>2405</v>
       </c>
       <c r="N85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86">
-        <v>299742</v>
+        <v>323750093</v>
       </c>
       <c r="B86">
-        <v>299751</v>
+        <v>323769692</v>
       </c>
       <c r="C86" t="s">
         <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F86">
-        <v>4.77</v>
+        <v>4.89</v>
       </c>
       <c r="G86">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="H86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I86">
-        <v>16070</v>
+        <v>3406</v>
       </c>
       <c r="J86">
-        <v>27001</v>
+        <v>1994</v>
       </c>
       <c r="K86">
-        <v>726</v>
+        <v>18</v>
       </c>
       <c r="L86">
-        <v>52063</v>
+        <v>3049</v>
       </c>
       <c r="M86">
-        <v>2405</v>
+        <v>61</v>
       </c>
       <c r="N86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87">
-        <v>323750093</v>
+        <v>567493313</v>
       </c>
       <c r="B87">
-        <v>323769692</v>
+        <v>567512898</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E87">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F87">
-        <v>4.89</v>
+        <v>4.77</v>
       </c>
       <c r="G87">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I87">
-        <v>3406</v>
+        <v>16610</v>
       </c>
       <c r="J87">
-        <v>1994</v>
+        <v>468</v>
       </c>
       <c r="K87">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L87">
-        <v>3049</v>
+        <v>2091</v>
       </c>
       <c r="M87">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="N87" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88">
-        <v>567493313</v>
+        <v>277390263</v>
       </c>
       <c r="B88">
-        <v>567512898</v>
+        <v>277395453</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -5170,42 +5161,42 @@
         <v>14</v>
       </c>
       <c r="E88">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="F88">
-        <v>4.77</v>
+        <v>4.78</v>
       </c>
       <c r="G88">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I88">
-        <v>16610</v>
+        <v>11371</v>
       </c>
       <c r="J88">
-        <v>468</v>
+        <v>7629</v>
       </c>
       <c r="K88">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="L88">
-        <v>2091</v>
+        <v>13912</v>
       </c>
       <c r="M88">
-        <v>74</v>
+        <v>636</v>
       </c>
       <c r="N88" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89">
-        <v>277390263</v>
+        <v>498018387</v>
       </c>
       <c r="B89">
-        <v>277395453</v>
+        <v>498037965</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -5214,130 +5205,130 @@
         <v>14</v>
       </c>
       <c r="E89">
-        <v>303</v>
+        <v>138</v>
       </c>
       <c r="F89">
         <v>4.78</v>
       </c>
       <c r="G89">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I89">
-        <v>11371</v>
+        <v>13553</v>
       </c>
       <c r="J89">
-        <v>7629</v>
+        <v>318</v>
       </c>
       <c r="K89">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="L89">
-        <v>13912</v>
+        <v>1073</v>
       </c>
       <c r="M89">
-        <v>636</v>
+        <v>44</v>
       </c>
       <c r="N89" t="s">
-        <v>285</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90">
-        <v>498018387</v>
+        <v>224587652</v>
       </c>
       <c r="B90">
-        <v>498037965</v>
+        <v>224591967</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E90">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="F90">
-        <v>4.78</v>
+        <v>4.92</v>
       </c>
       <c r="G90">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I90">
-        <v>13553</v>
+        <v>8215</v>
       </c>
       <c r="J90">
-        <v>318</v>
+        <v>9203</v>
       </c>
       <c r="K90">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L90">
-        <v>1073</v>
+        <v>18655</v>
       </c>
       <c r="M90">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="N90" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91">
-        <v>224587652</v>
+        <v>258452033</v>
       </c>
       <c r="B91">
-        <v>224591967</v>
+        <v>258453532</v>
       </c>
       <c r="C91" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E91">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="F91">
-        <v>4.92</v>
+        <v>4.82</v>
       </c>
       <c r="G91">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I91">
-        <v>8215</v>
+        <v>6163</v>
       </c>
       <c r="J91">
-        <v>9203</v>
+        <v>3145</v>
       </c>
       <c r="K91">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="L91">
-        <v>18655</v>
+        <v>20088</v>
       </c>
       <c r="M91">
-        <v>237</v>
+        <v>746</v>
       </c>
       <c r="N91" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92">
-        <v>258452033</v>
+        <v>309740850</v>
       </c>
       <c r="B92">
-        <v>258453532</v>
+        <v>309760435</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -5346,130 +5337,130 @@
         <v>14</v>
       </c>
       <c r="E92">
-        <v>250</v>
+        <v>417</v>
       </c>
       <c r="F92">
-        <v>4.82</v>
+        <v>4.78</v>
       </c>
       <c r="G92">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="H92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I92">
-        <v>6163</v>
+        <v>10292</v>
       </c>
       <c r="J92">
-        <v>3145</v>
+        <v>998</v>
       </c>
       <c r="K92">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="L92">
-        <v>20088</v>
+        <v>12322</v>
       </c>
       <c r="M92">
-        <v>746</v>
+        <v>535</v>
       </c>
       <c r="N92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93">
-        <v>309740850</v>
+        <v>565068251</v>
       </c>
       <c r="B93">
-        <v>309760435</v>
+        <v>565087836</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E93">
-        <v>417</v>
+        <v>57</v>
       </c>
       <c r="F93">
-        <v>4.78</v>
+        <v>4.88</v>
       </c>
       <c r="G93">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I93">
-        <v>10292</v>
+        <v>388</v>
       </c>
       <c r="J93">
-        <v>998</v>
+        <v>7060</v>
       </c>
       <c r="K93">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="L93">
-        <v>12322</v>
+        <v>6381</v>
       </c>
       <c r="M93">
-        <v>535</v>
+        <v>158</v>
       </c>
       <c r="N93" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94">
-        <v>565068251</v>
+        <v>61595324</v>
       </c>
       <c r="B94">
-        <v>565087836</v>
+        <v>61596767</v>
       </c>
       <c r="C94" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E94">
-        <v>57</v>
+        <v>506</v>
       </c>
       <c r="F94">
-        <v>4.88</v>
+        <v>4.82</v>
       </c>
       <c r="G94">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I94">
-        <v>388</v>
+        <v>10100</v>
       </c>
       <c r="J94">
-        <v>7060</v>
+        <v>2869</v>
       </c>
       <c r="K94">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="L94">
-        <v>6381</v>
+        <v>27192</v>
       </c>
       <c r="M94">
-        <v>158</v>
+        <v>963</v>
       </c>
       <c r="N94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95">
-        <v>61595324</v>
+        <v>329494459</v>
       </c>
       <c r="B95">
-        <v>61596767</v>
+        <v>329514034</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -5478,42 +5469,42 @@
         <v>14</v>
       </c>
       <c r="E95">
-        <v>506</v>
+        <v>225</v>
       </c>
       <c r="F95">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="G95">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I95">
-        <v>10100</v>
+        <v>11668</v>
       </c>
       <c r="J95">
-        <v>2869</v>
+        <v>1655</v>
       </c>
       <c r="K95">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="L95">
-        <v>27192</v>
+        <v>3845</v>
       </c>
       <c r="M95">
-        <v>963</v>
+        <v>154</v>
       </c>
       <c r="N95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
-        <v>329494459</v>
+        <v>809624709</v>
       </c>
       <c r="B96">
-        <v>329514034</v>
+        <v>809610918</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -5522,922 +5513,922 @@
         <v>14</v>
       </c>
       <c r="E96">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="F96">
-        <v>4.8</v>
+        <v>4.86</v>
       </c>
       <c r="G96">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I96">
-        <v>11668</v>
+        <v>2771</v>
       </c>
       <c r="J96">
-        <v>1655</v>
+        <v>65</v>
       </c>
       <c r="K96">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>3845</v>
+        <v>57</v>
       </c>
       <c r="M96">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
-        <v>809624709</v>
+        <v>235307152</v>
       </c>
       <c r="B97">
-        <v>809610918</v>
+        <v>235312181</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E97">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F97">
-        <v>4.86</v>
+        <v>4.88</v>
       </c>
       <c r="G97">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I97">
-        <v>2771</v>
+        <v>2888</v>
       </c>
       <c r="J97">
-        <v>65</v>
+        <v>2513</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L97">
-        <v>57</v>
+        <v>5334</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="N97" t="s">
-        <v>188</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
-        <v>235307152</v>
+        <v>857068188</v>
       </c>
       <c r="B98">
-        <v>235312181</v>
+        <v>857079704</v>
       </c>
       <c r="C98" t="s">
         <v>73</v>
       </c>
       <c r="D98" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E98">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F98">
-        <v>4.88</v>
+        <v>4.49</v>
       </c>
       <c r="G98">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I98">
-        <v>2888</v>
+        <v>4935</v>
       </c>
       <c r="J98">
-        <v>2513</v>
+        <v>111</v>
       </c>
       <c r="K98">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L98">
-        <v>5334</v>
+        <v>375</v>
       </c>
       <c r="M98">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="N98" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
-        <v>857068188</v>
+        <v>84204959</v>
       </c>
       <c r="B99">
-        <v>857079704</v>
+        <v>84206436</v>
       </c>
       <c r="C99" t="s">
         <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="F99">
-        <v>4.49</v>
+        <v>4.94</v>
       </c>
       <c r="G99">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I99">
-        <v>4935</v>
+        <v>8651</v>
       </c>
       <c r="J99">
-        <v>111</v>
+        <v>62675</v>
       </c>
       <c r="K99">
-        <v>17</v>
+        <v>372</v>
       </c>
       <c r="L99">
-        <v>375</v>
+        <v>137471</v>
       </c>
       <c r="M99">
-        <v>49</v>
+        <v>1600</v>
       </c>
       <c r="N99" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
-        <v>84204959</v>
+        <v>39869582</v>
       </c>
       <c r="B100">
-        <v>84206436</v>
+        <v>39870968</v>
       </c>
       <c r="C100" t="s">
         <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="F100">
-        <v>4.94</v>
+        <v>4.97</v>
       </c>
       <c r="G100">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I100">
-        <v>8651</v>
+        <v>6470</v>
       </c>
       <c r="J100">
-        <v>62675</v>
+        <v>534</v>
       </c>
       <c r="K100">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>137471</v>
+        <v>388</v>
       </c>
       <c r="M100">
-        <v>1600</v>
+        <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>39869582</v>
+        <v>81087530</v>
       </c>
       <c r="B101">
-        <v>39870968</v>
+        <v>81089006</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>415</v>
       </c>
       <c r="F101">
-        <v>4.97</v>
+        <v>4.81</v>
       </c>
       <c r="G101">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I101">
-        <v>6470</v>
+        <v>13213</v>
       </c>
       <c r="J101">
-        <v>534</v>
+        <v>3827</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="L101">
-        <v>388</v>
+        <v>36981</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>1434</v>
       </c>
       <c r="N101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
-        <v>81087530</v>
+        <v>256689540</v>
       </c>
       <c r="B102">
-        <v>81089006</v>
+        <v>256690674</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E102">
-        <v>415</v>
+        <v>9</v>
       </c>
       <c r="F102">
-        <v>4.81</v>
+        <v>4.9</v>
       </c>
       <c r="G102">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I102">
-        <v>13213</v>
+        <v>11949</v>
       </c>
       <c r="J102">
-        <v>3827</v>
+        <v>1424</v>
       </c>
       <c r="K102">
-        <v>414</v>
+        <v>17</v>
       </c>
       <c r="L102">
-        <v>36981</v>
+        <v>5891</v>
       </c>
       <c r="M102">
-        <v>1434</v>
+        <v>96</v>
       </c>
       <c r="N102" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
-        <v>256689540</v>
+        <v>472472246</v>
       </c>
       <c r="B103">
-        <v>256690674</v>
+        <v>472491823</v>
       </c>
       <c r="C103" t="s">
         <v>77</v>
       </c>
       <c r="D103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="F103">
-        <v>4.9</v>
+        <v>4.79</v>
       </c>
       <c r="G103">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I103">
-        <v>11949</v>
+        <v>11448</v>
       </c>
       <c r="J103">
-        <v>1424</v>
+        <v>6692</v>
       </c>
       <c r="K103">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="L103">
-        <v>5891</v>
+        <v>14598</v>
       </c>
       <c r="M103">
-        <v>96</v>
+        <v>578</v>
       </c>
       <c r="N103" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
-        <v>472472246</v>
+        <v>86826200</v>
       </c>
       <c r="B104">
-        <v>472491823</v>
+        <v>86827678</v>
       </c>
       <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>95</v>
+      </c>
+      <c r="F104">
+        <v>4.78</v>
+      </c>
+      <c r="G104">
         <v>78</v>
       </c>
-      <c r="D104" t="s">
-        <v>92</v>
-      </c>
-      <c r="E104">
-        <v>268</v>
-      </c>
-      <c r="F104">
-        <v>4.79</v>
-      </c>
-      <c r="G104">
-        <v>99</v>
-      </c>
       <c r="H104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I104">
-        <v>11448</v>
+        <v>17711</v>
       </c>
       <c r="J104">
-        <v>6692</v>
+        <v>5148</v>
       </c>
       <c r="K104">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="L104">
-        <v>14598</v>
+        <v>22089</v>
       </c>
       <c r="M104">
-        <v>578</v>
+        <v>969</v>
       </c>
       <c r="N104" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
-        <v>86826200</v>
+        <v>290396710</v>
       </c>
       <c r="B105">
-        <v>86827678</v>
+        <v>290415935</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E105">
         <v>95</v>
       </c>
       <c r="F105">
-        <v>4.78</v>
+        <v>4.84</v>
       </c>
       <c r="G105">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H105" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I105">
-        <v>17711</v>
+        <v>9309</v>
       </c>
       <c r="J105">
-        <v>5148</v>
+        <v>2696</v>
       </c>
       <c r="K105">
+        <v>100</v>
+      </c>
+      <c r="L105">
+        <v>10112</v>
+      </c>
+      <c r="M105">
         <v>353</v>
       </c>
-      <c r="L105">
-        <v>22089</v>
-      </c>
-      <c r="M105">
-        <v>969</v>
-      </c>
       <c r="N105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
-        <v>290396710</v>
+        <v>499648059</v>
       </c>
       <c r="B106">
-        <v>290415935</v>
+        <v>499667637</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E106">
+        <v>120</v>
+      </c>
+      <c r="F106">
+        <v>4.83</v>
+      </c>
+      <c r="G106">
         <v>95</v>
       </c>
-      <c r="F106">
-        <v>4.84</v>
-      </c>
-      <c r="G106">
-        <v>96</v>
-      </c>
       <c r="H106" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I106">
-        <v>9309</v>
+        <v>8685</v>
       </c>
       <c r="J106">
-        <v>2696</v>
+        <v>5206</v>
       </c>
       <c r="K106">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="L106">
-        <v>10112</v>
+        <v>22246</v>
       </c>
       <c r="M106">
-        <v>353</v>
+        <v>791</v>
       </c>
       <c r="N106" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107">
-        <v>499648059</v>
+        <v>289407107</v>
       </c>
       <c r="B107">
-        <v>499667637</v>
+        <v>289426303</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E107">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="F107">
-        <v>4.83</v>
+        <v>4.94</v>
       </c>
       <c r="G107">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I107">
-        <v>8685</v>
+        <v>9750</v>
       </c>
       <c r="J107">
-        <v>5206</v>
+        <v>13370</v>
       </c>
       <c r="K107">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="L107">
-        <v>22246</v>
+        <v>15287</v>
       </c>
       <c r="M107">
-        <v>791</v>
+        <v>143</v>
       </c>
       <c r="N107" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108">
-        <v>289407107</v>
+        <v>274167532</v>
       </c>
       <c r="B108">
-        <v>289426303</v>
+        <v>274172166</v>
       </c>
       <c r="C108" t="s">
         <v>80</v>
       </c>
       <c r="D108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E108">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="F108">
-        <v>4.94</v>
+        <v>4.84</v>
       </c>
       <c r="G108">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I108">
-        <v>9750</v>
+        <v>11197</v>
       </c>
       <c r="J108">
-        <v>13370</v>
+        <v>4696</v>
       </c>
       <c r="K108">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L108">
-        <v>15287</v>
+        <v>6849</v>
       </c>
       <c r="M108">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="N108" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109">
-        <v>274167532</v>
+        <v>72567956</v>
       </c>
       <c r="B109">
-        <v>274172166</v>
+        <v>72569419</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E109">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="F109">
-        <v>4.84</v>
+        <v>4.79</v>
       </c>
       <c r="G109">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I109">
-        <v>11197</v>
+        <v>10782</v>
       </c>
       <c r="J109">
-        <v>4696</v>
+        <v>28470</v>
       </c>
       <c r="K109">
-        <v>52</v>
+        <v>613</v>
       </c>
       <c r="L109">
-        <v>6849</v>
+        <v>55158</v>
       </c>
       <c r="M109">
-        <v>220</v>
+        <v>2516</v>
       </c>
       <c r="N109" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110">
-        <v>72567956</v>
+        <v>474850985</v>
       </c>
       <c r="B110">
-        <v>72569419</v>
+        <v>474870562</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E110">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="F110">
-        <v>4.79</v>
+        <v>4.68</v>
       </c>
       <c r="G110">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I110">
-        <v>10782</v>
+        <v>10730</v>
       </c>
       <c r="J110">
-        <v>28470</v>
+        <v>722</v>
       </c>
       <c r="K110">
-        <v>613</v>
+        <v>167</v>
       </c>
       <c r="L110">
-        <v>55158</v>
+        <v>6107</v>
       </c>
       <c r="M110">
-        <v>2516</v>
+        <v>441</v>
       </c>
       <c r="N110" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111">
-        <v>474850985</v>
+        <v>20720050</v>
       </c>
       <c r="B111">
-        <v>474870562</v>
+        <v>20721386</v>
       </c>
       <c r="C111" t="s">
         <v>82</v>
       </c>
       <c r="D111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E111">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="F111">
-        <v>4.68</v>
+        <v>4.89</v>
       </c>
       <c r="G111">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I111">
-        <v>10730</v>
+        <v>4137</v>
       </c>
       <c r="J111">
-        <v>722</v>
+        <v>12351</v>
       </c>
       <c r="K111">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="L111">
-        <v>6107</v>
+        <v>33114</v>
       </c>
       <c r="M111">
-        <v>441</v>
+        <v>700</v>
       </c>
       <c r="N111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112">
-        <v>20720050</v>
+        <v>347119246</v>
       </c>
       <c r="B112">
-        <v>20721386</v>
+        <v>347138821</v>
       </c>
       <c r="C112" t="s">
         <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E112">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F112">
-        <v>4.89</v>
+        <v>4.87</v>
       </c>
       <c r="G112">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I112">
-        <v>4137</v>
+        <v>4939</v>
       </c>
       <c r="J112">
-        <v>12351</v>
+        <v>5307</v>
       </c>
       <c r="K112">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="L112">
-        <v>33114</v>
+        <v>5277</v>
       </c>
       <c r="M112">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="N112" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113">
-        <v>347119246</v>
+        <v>275897983</v>
       </c>
       <c r="B113">
-        <v>347138821</v>
+        <v>275902936</v>
       </c>
       <c r="C113" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E113">
-        <v>42</v>
+        <v>851</v>
       </c>
       <c r="F113">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="G113">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I113">
-        <v>4939</v>
+        <v>13694</v>
       </c>
       <c r="J113">
-        <v>5307</v>
+        <v>5939</v>
       </c>
       <c r="K113">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="L113">
-        <v>5277</v>
+        <v>25435</v>
       </c>
       <c r="M113">
-        <v>110</v>
+        <v>754</v>
       </c>
       <c r="N113" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114">
-        <v>275897983</v>
+        <v>283571173</v>
       </c>
       <c r="B114">
-        <v>275902936</v>
+        <v>283578375</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E114">
-        <v>851</v>
+        <v>85</v>
       </c>
       <c r="F114">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="G114">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I114">
-        <v>13694</v>
+        <v>8883</v>
       </c>
       <c r="J114">
-        <v>5939</v>
+        <v>1023</v>
       </c>
       <c r="K114">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="L114">
-        <v>25435</v>
+        <v>12457</v>
       </c>
       <c r="M114">
-        <v>754</v>
+        <v>352</v>
       </c>
       <c r="N114" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115">
-        <v>283571173</v>
+        <v>189531438</v>
       </c>
       <c r="B115">
-        <v>283578375</v>
+        <v>189534217</v>
       </c>
       <c r="C115" t="s">
         <v>85</v>
       </c>
       <c r="D115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E115">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="F115">
-        <v>4.83</v>
+        <v>4.76</v>
       </c>
       <c r="G115">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I115">
-        <v>8883</v>
+        <v>962</v>
       </c>
       <c r="J115">
-        <v>1023</v>
+        <v>19616</v>
       </c>
       <c r="K115">
-        <v>179</v>
+        <v>539</v>
       </c>
       <c r="L115">
-        <v>12457</v>
+        <v>29340</v>
       </c>
       <c r="M115">
-        <v>352</v>
+        <v>1403</v>
       </c>
       <c r="N115" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116">
-        <v>189531438</v>
+        <v>322587491</v>
       </c>
       <c r="B116">
-        <v>189534217</v>
+        <v>322607090</v>
       </c>
       <c r="C116" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E116">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="F116">
-        <v>4.76</v>
+        <v>4.81</v>
       </c>
       <c r="G116">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I116">
-        <v>962</v>
+        <v>15860</v>
       </c>
       <c r="J116">
-        <v>19616</v>
+        <v>1166</v>
       </c>
       <c r="K116">
-        <v>539</v>
+        <v>55</v>
       </c>
       <c r="L116">
-        <v>29340</v>
+        <v>4393</v>
       </c>
       <c r="M116">
-        <v>1403</v>
+        <v>175</v>
       </c>
       <c r="N116" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117">
-        <v>322587491</v>
+        <v>369852783</v>
       </c>
       <c r="B117">
-        <v>322607090</v>
+        <v>369872360</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
@@ -6446,42 +6437,42 @@
         <v>14</v>
       </c>
       <c r="E117">
-        <v>67</v>
+        <v>440</v>
       </c>
       <c r="F117">
-        <v>4.81</v>
+        <v>4.68</v>
       </c>
       <c r="G117">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I117">
-        <v>15860</v>
+        <v>626</v>
       </c>
       <c r="J117">
-        <v>1166</v>
+        <v>4451</v>
       </c>
       <c r="K117">
-        <v>55</v>
+        <v>436</v>
       </c>
       <c r="L117">
-        <v>4393</v>
+        <v>21750</v>
       </c>
       <c r="M117">
-        <v>175</v>
+        <v>1635</v>
       </c>
       <c r="N117" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118">
-        <v>369852783</v>
+        <v>456336437</v>
       </c>
       <c r="B118">
-        <v>369872360</v>
+        <v>456356014</v>
       </c>
       <c r="C118" t="s">
         <v>14</v>
@@ -6490,342 +6481,298 @@
         <v>14</v>
       </c>
       <c r="E118">
-        <v>440</v>
+        <v>23</v>
       </c>
       <c r="F118">
         <v>4.68</v>
       </c>
       <c r="G118">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H118" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I118">
-        <v>626</v>
+        <v>15101</v>
       </c>
       <c r="J118">
-        <v>4451</v>
+        <v>448</v>
       </c>
       <c r="K118">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="L118">
-        <v>21750</v>
+        <v>1498</v>
       </c>
       <c r="M118">
-        <v>1635</v>
+        <v>99</v>
       </c>
       <c r="N118" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119">
-        <v>456336437</v>
+        <v>264542185</v>
       </c>
       <c r="B119">
-        <v>456356014</v>
+        <v>264544708</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E119">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="F119">
-        <v>4.68</v>
+        <v>4.9</v>
       </c>
       <c r="G119">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I119">
-        <v>15101</v>
+        <v>14418</v>
       </c>
       <c r="J119">
-        <v>448</v>
+        <v>12392</v>
       </c>
       <c r="K119">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="L119">
-        <v>1498</v>
+        <v>33923</v>
       </c>
       <c r="M119">
-        <v>99</v>
+        <v>585</v>
       </c>
       <c r="N119" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120">
-        <v>264542185</v>
+        <v>274578160</v>
       </c>
       <c r="B120">
-        <v>264544708</v>
+        <v>274582872</v>
       </c>
       <c r="C120" t="s">
         <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E120">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F120">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="G120">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="H120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I120">
-        <v>14418</v>
+        <v>11205</v>
       </c>
       <c r="J120">
-        <v>12392</v>
+        <v>3037</v>
       </c>
       <c r="K120">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="L120">
-        <v>33923</v>
+        <v>33656</v>
       </c>
       <c r="M120">
-        <v>585</v>
+        <v>905</v>
       </c>
       <c r="N120" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121">
-        <v>274578160</v>
+        <v>264007932</v>
       </c>
       <c r="B121">
-        <v>274582872</v>
+        <v>264010338</v>
       </c>
       <c r="C121" t="s">
         <v>88</v>
       </c>
       <c r="D121" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E121">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="F121">
-        <v>4.85</v>
+        <v>4.88</v>
       </c>
       <c r="G121">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I121">
-        <v>11205</v>
+        <v>10071</v>
       </c>
       <c r="J121">
-        <v>3037</v>
+        <v>837</v>
       </c>
       <c r="K121">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="L121">
-        <v>33656</v>
+        <v>5707</v>
       </c>
       <c r="M121">
-        <v>905</v>
+        <v>111</v>
       </c>
       <c r="N121" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122">
-        <v>264007932</v>
+        <v>16524014</v>
       </c>
       <c r="B122">
-        <v>264010338</v>
+        <v>16525350</v>
       </c>
       <c r="C122" t="s">
         <v>89</v>
       </c>
       <c r="D122" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E122">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="F122">
-        <v>4.88</v>
+        <v>4.84</v>
       </c>
       <c r="G122">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="H122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I122">
-        <v>10071</v>
+        <v>16077</v>
       </c>
       <c r="J122">
-        <v>837</v>
+        <v>5467</v>
       </c>
       <c r="K122">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="L122">
-        <v>5707</v>
+        <v>42001</v>
       </c>
       <c r="M122">
-        <v>111</v>
+        <v>1344</v>
       </c>
       <c r="N122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <v>16524014</v>
+        <v>292248419</v>
       </c>
       <c r="B123">
-        <v>16525350</v>
+        <v>292267685</v>
       </c>
       <c r="C123" t="s">
         <v>90</v>
       </c>
       <c r="D123" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E123">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="F123">
-        <v>4.84</v>
+        <v>4.81</v>
       </c>
       <c r="G123">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H123" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I123">
-        <v>16077</v>
+        <v>8817</v>
       </c>
       <c r="J123">
-        <v>5467</v>
+        <v>1920</v>
       </c>
       <c r="K123">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="L123">
-        <v>42001</v>
+        <v>5770</v>
       </c>
       <c r="M123">
-        <v>1344</v>
+        <v>215</v>
       </c>
       <c r="N123" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124">
-        <v>292248419</v>
+        <v>286481403</v>
       </c>
       <c r="B124">
-        <v>292267685</v>
+        <v>286500512</v>
       </c>
       <c r="C124" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F124">
-        <v>4.81</v>
+        <v>4.86</v>
       </c>
       <c r="G124">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I124">
-        <v>8817</v>
+        <v>4823</v>
       </c>
       <c r="J124">
-        <v>1920</v>
+        <v>6836</v>
       </c>
       <c r="K124">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="L124">
-        <v>5770</v>
+        <v>26727</v>
       </c>
       <c r="M124">
-        <v>215</v>
+        <v>737</v>
       </c>
       <c r="N124" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125">
-        <v>286481403</v>
-      </c>
-      <c r="B125">
-        <v>286500512</v>
-      </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125">
-        <v>182</v>
-      </c>
-      <c r="F125">
-        <v>4.86</v>
-      </c>
-      <c r="G125">
-        <v>100</v>
-      </c>
-      <c r="H125" t="s">
-        <v>216</v>
-      </c>
-      <c r="I125">
-        <v>4823</v>
-      </c>
-      <c r="J125">
-        <v>6836</v>
-      </c>
-      <c r="K125">
-        <v>222</v>
-      </c>
-      <c r="L125">
-        <v>26727</v>
-      </c>
-      <c r="M125">
-        <v>737</v>
-      </c>
-      <c r="N125" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
